--- a/Training/BiLSTM_BTC_result1.xlsx
+++ b/Training/BiLSTM_BTC_result1.xlsx
@@ -437,13 +437,13 @@
         <v>50</v>
       </c>
       <c r="E1" t="n">
-        <v>681.1301011499193</v>
+        <v>698.5234883021787</v>
       </c>
       <c r="F1" t="n">
-        <v>589.2629086665476</v>
+        <v>622.317582143284</v>
       </c>
       <c r="G1" t="n">
-        <v>3.0867206734173</v>
+        <v>3.239060467497107</v>
       </c>
     </row>
     <row r="2">
@@ -462,13 +462,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>421.8519002555145</v>
+        <v>475.127583943328</v>
       </c>
       <c r="F2" t="n">
-        <v>356.850766863293</v>
+        <v>403.7813227996535</v>
       </c>
       <c r="G2" t="n">
-        <v>1.844396629187447</v>
+        <v>2.093265928992358</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +487,13 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>493.9961625091142</v>
+        <v>634.8145572982118</v>
       </c>
       <c r="F3" t="n">
-        <v>426.5837351479954</v>
+        <v>560.948258671427</v>
       </c>
       <c r="G3" t="n">
-        <v>2.217758007567038</v>
+        <v>2.915031804193361</v>
       </c>
     </row>
     <row r="4">
@@ -512,13 +512,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>965.1049425358328</v>
+        <v>873.4655625709014</v>
       </c>
       <c r="F4" t="n">
-        <v>900.3861524225513</v>
+        <v>808.4899114782518</v>
       </c>
       <c r="G4" t="n">
-        <v>4.680678843614316</v>
+        <v>4.206122460762147</v>
       </c>
     </row>
     <row r="5">
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>413.213962793564</v>
+        <v>375.1751567653773</v>
       </c>
       <c r="F5" t="n">
-        <v>347.1794733429403</v>
+        <v>315.4046457113415</v>
       </c>
       <c r="G5" t="n">
-        <v>1.800236342204927</v>
+        <v>1.619905840113003</v>
       </c>
     </row>
     <row r="6">
@@ -562,13 +562,13 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>912.5726598415063</v>
+        <v>874.9663831420024</v>
       </c>
       <c r="F6" t="n">
-        <v>846.2458578590307</v>
+        <v>817.3198459159911</v>
       </c>
       <c r="G6" t="n">
-        <v>4.403916633039235</v>
+        <v>4.24552010309018</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +587,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>719.6906829597089</v>
+        <v>698.5785859927123</v>
       </c>
       <c r="F7" t="n">
-        <v>644.8211225684433</v>
+        <v>641.8483248685473</v>
       </c>
       <c r="G7" t="n">
-        <v>3.361774500915919</v>
+        <v>3.325830840158345</v>
       </c>
     </row>
     <row r="8">
@@ -612,13 +612,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>651.2399357641782</v>
+        <v>421.0145720959931</v>
       </c>
       <c r="F8" t="n">
-        <v>580.0481232438764</v>
+        <v>366.8654139952801</v>
       </c>
       <c r="G8" t="n">
-        <v>3.022838684777118</v>
+        <v>1.903861895614101</v>
       </c>
     </row>
     <row r="9">
@@ -637,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>667.2982127139787</v>
+        <v>601.4920314779822</v>
       </c>
       <c r="F9" t="n">
-        <v>593.1468456487154</v>
+        <v>542.2927417841784</v>
       </c>
       <c r="G9" t="n">
-        <v>3.09351180387472</v>
+        <v>2.815062870354472</v>
       </c>
     </row>
   </sheetData>
